--- a/konsolidasi/public/template/template.xlsx
+++ b/konsolidasi/public/template/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Skripsi\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Skripsi\Web Konsolidasi\Konsolidasi\konsolidasi\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CBAC76D-3B21-4DEF-87CE-777BBB36854A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C666AC71-2963-425A-968F-F700CF960A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{68151857-9227-4A45-9976-F0DC6AFDC34B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>kd_wilayah</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>andil</t>
+  </si>
+  <si>
+    <t>rekonsiliasi_flag</t>
   </si>
 </sst>
 </file>
@@ -83,9 +86,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47972631-DE62-4ADE-9B70-1ECDCA8158FF}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -431,18 +433,21 @@
     <col min="1" max="1" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
